--- a/nriss-patch-1/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
+++ b/nriss-patch-1/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ConceptMap/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap</t>
+    <t>https://hl7.fr/ig/fhir/medication/ConceptMap/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T15:35:36+00:00</t>
+    <t>2026-01-15T08:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,39 +75,42 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ConceptMap pour la conversion PN13 vers FHIR du professionnel prescripteur d'une prescritpion de médicament avec uniquement un identifiant fourni</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://interopsante.org/pn13/xsd</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ConceptMap pour la conversion PN13 vers FHIR du professionnel prescripteur d'une prescritpion de médicament avec uniquement un identifiant fourni</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>https://interopsante.org/pn13/xsd</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Id_prescripteur</t>
   </si>
   <si>
@@ -115,12 +118,6 @@
   </si>
   <si>
     <t>MedicationRequest.requester.identifier.value</t>
-  </si>
-  <si>
-    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Id_prescripteur@Phast-uri_nomenclature</t>
-  </si>
-  <si>
-    <t>MedicationRequest.encounter.identifier.system</t>
   </si>
 </sst>
 </file>
@@ -393,7 +390,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,41 +416,28 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
